--- a/data/hotels_by_city/Denver/Denver_shard_46.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_46.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33445-d84891-Reviews-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Crossland-Denver-Cherry-Creek.h119148.Hotel-Information?chkin=4%2F16%2F2018&amp;chkout=4%2F17%2F2018&amp;rm1=a2&amp;regionId=178254&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1522967180093&amp;vip=false&amp;c=fbb69507-f6f7-4316-8d47-c453958e8b4e&amp;mctc=9&amp;exp_dp=69.99&amp;exp_ts=1522967186072&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +145,393 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r580385983-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>33445</t>
+  </si>
+  <si>
+    <t>84891</t>
+  </si>
+  <si>
+    <t>580385983</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Wish I'd read the reviews!</t>
+  </si>
+  <si>
+    <t>I needed a reasonably priced room to stay near my son's residence. Upon arrival the 'tattooed " guests hanging in the lot gave me pause, looked like "da hood". Room looked nice,  had been updated, pillow cases on inside out, sheet wrinkled and the bottoms of my socks black from filthy floor. Fridge, stove, microwave.NO Coffee maker!It's a nice area but.....stairwells filthy,looked like feices on the walls and trash. Elevator CREEPY too. Somethings not good probably happen here. Onsight staff, terrible. Damage in the room as well, I took photos upon arrival.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r564964474-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>564964474</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>NEVER again.</t>
+  </si>
+  <si>
+    <t>The room was nasty, pillow cases were turned inside out so who knows if they were even washed.  The condition and cleanliness of the room and bathroom rate less than a one star.  I woke in the middle of the night to check on my car for fear of vandalism.  I took some pictures and actually erased them from my phone as I could barely stand to look at them.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r524950526-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>524950526</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>This hotel is like a crime scene</t>
+  </si>
+  <si>
+    <t>Upon arrival the front desk agent was very unaccommodating to even consider checking us in before the posted 3pm time. The manager on the other hand had a much better attitude throughout our correspondence. The room itself was devastating. Door was wide open upon our arrival and looked like it had been kicked in and didn't close properly. Stains all over every wall and ceiling. The room had an extreme smell of stale smoke and every corner in the room was beyond grimy. Burn marks in the blankets and all around the worst room that we had both been in our entire lives. We had to cut our stay short. Just no way we could comfortably stay there for more than the one night that we made work in a pinch. This hotel needs a serious overhaul.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Upon arrival the front desk agent was very unaccommodating to even consider checking us in before the posted 3pm time. The manager on the other hand had a much better attitude throughout our correspondence. The room itself was devastating. Door was wide open upon our arrival and looked like it had been kicked in and didn't close properly. Stains all over every wall and ceiling. The room had an extreme smell of stale smoke and every corner in the room was beyond grimy. Burn marks in the blankets and all around the worst room that we had both been in our entire lives. We had to cut our stay short. Just no way we could comfortably stay there for more than the one night that we made work in a pinch. This hotel needs a serious overhaul.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r500527976-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>500527976</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>Nice place with kitchen, reasonable when you book online, close to grocery stores, most of staff is friendly, clean, maintenance is attentive, recently remodeled, close to liquor stores, and restaurants</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r498080319-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>498080319</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Nightmare experience!!</t>
+  </si>
+  <si>
+    <t>Showed up after traveling all day and it took an hour to check in. We were handed our room key and when we opened the door to the room someone else was already in their as well as all their stuff! Went back to the reception desk where they were still handing out room keys told them the situation and were told they were overbooked by 30 rooms! This, even though we had made reservations a full week before!We left hoping we would be 100 percent refunded. Tried for 2 hours to try to get another room and the whole city seemed to be booked with no rooms available anywhere. We literally sat in a parking lot for 2 hours. Finally started driving and just checking for room availability anywhere &amp; after many stops finally found a room in a crappy neighborhood. My daughter had to be at a hospital at 5:30 am for check in for surgery. We were exhausted and tried to settle in to sleep. By now it's 11:30. Then we had people knocking on our windows and door 3 different times until finally we fled the room at 3 am. Never felt so unsafe in all my life and all because of the crap from the hotel we were supposed to stay at. 2 women and a teenage girl traveling alone. Scary stuff.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Showed up after traveling all day and it took an hour to check in. We were handed our room key and when we opened the door to the room someone else was already in their as well as all their stuff! Went back to the reception desk where they were still handing out room keys told them the situation and were told they were overbooked by 30 rooms! This, even though we had made reservations a full week before!We left hoping we would be 100 percent refunded. Tried for 2 hours to try to get another room and the whole city seemed to be booked with no rooms available anywhere. We literally sat in a parking lot for 2 hours. Finally started driving and just checking for room availability anywhere &amp; after many stops finally found a room in a crappy neighborhood. My daughter had to be at a hospital at 5:30 am for check in for surgery. We were exhausted and tried to settle in to sleep. By now it's 11:30. Then we had people knocking on our windows and door 3 different times until finally we fled the room at 3 am. Never felt so unsafe in all my life and all because of the crap from the hotel we were supposed to stay at. 2 women and a teenage girl traveling alone. Scary stuff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r491013487-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>491013487</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bedding hadn't been changed </t>
+  </si>
+  <si>
+    <t>Me and my mum were supposed to stay here for the remainder of our stay in the states before travelling back to England. When we entered our room we always check around. On our bed sheets there were bright blue stains. We requested these to be changed as you can imagine no guest wants to sleep on stained sheets. Over an hour later they hadn't been changed. I took the sheet off myself and under the sheet was a bright blue stain on the matress protector implying that the sheets hadn't been changed or washed before we arrived. When I went to make a complaint they offered me new sheets and I had to change the bedding myself. This isnt acceptable at all and have never been in a motel or hotel that would make the guest change their own sheets. We weren't the only guests having problems. Some guests didn't have loo roll in their rooms and had to ask for it. I have tried making an official complaint online but will not let me complete the form due to not having an American phone number.MoreShow less</t>
+  </si>
+  <si>
+    <t>Me and my mum were supposed to stay here for the remainder of our stay in the states before travelling back to England. When we entered our room we always check around. On our bed sheets there were bright blue stains. We requested these to be changed as you can imagine no guest wants to sleep on stained sheets. Over an hour later they hadn't been changed. I took the sheet off myself and under the sheet was a bright blue stain on the matress protector implying that the sheets hadn't been changed or washed before we arrived. When I went to make a complaint they offered me new sheets and I had to change the bedding myself. This isnt acceptable at all and have never been in a motel or hotel that would make the guest change their own sheets. We weren't the only guests having problems. Some guests didn't have loo roll in their rooms and had to ask for it. I have tried making an official complaint online but will not let me complete the form due to not having an American phone number.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r467541068-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>467541068</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>This place sucks</t>
+  </si>
+  <si>
+    <t>We checked in room was filthy. Show was extremely dirty. Beds had no pillows and it took them three hours to bring some. When i approached the management i was told they are striving to be a two star rating. The only way i would ever stay thier again is if i started selling drugs or prostitution ring.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r430569531-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>430569531</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>Gewat Value!</t>
+  </si>
+  <si>
+    <t>Check in took about a minute. They were expecting me. My room was clean, smelled good, was clearly updated with the latest design details. In a good location for food and shopping. Overall, a great experience.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r418071653-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>418071653</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>Crossland economy suits</t>
+  </si>
+  <si>
+    <t>Very dated , small 1 bed, room , seems like a lot of people live there , and was not up to my standards if u have ever stayed in a extended stay it ten times worse I could not stay I imidiately asked for a refund !The workers very rude and incompitant was there 20 mins and had to go to front desk 5 times don't waiste your money or time unless u just have too I don't recommend</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r405918540-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>405918540</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>If the staff isn't stealing from you, the management is.</t>
+  </si>
+  <si>
+    <t>Months ago, I noticed things were disappearing in my room.  I caught the cleaning lady stealing on video.  She was fired and arrested.  No one from Westmont ever contacted me, no offer of reimbursement or restitution for all she stole.Nothing.  I've had a very extended stay here across multiple rooms.  Westmont Property Group took over the hotel from Extended Stay America last November…. and it’s been downhill since then.  I’ve read the other reviews.  They are accurate.  I also was told to go buy my own soap and on occasion, toilet paper.They will not clean your room once a week.  I’ve been waiting for 7 weeks now.  Regardless of how often I’ve complained.  Today, I was told that they cleaned on the 20th of last month, that was a bold lie.  It’s the 15th today….  And I got the same song, it’ll be done tomorrow.  (She forgot it should have been done three times since the 20th.)Weekly cleaning service is included in the price of the room, but doesn’t get performed.  That’s where the management steals from you.  Services paid for but never rendered. If you are on a short trip, spend the extra twenty bucks a night and go somewhere else.  If you are here to work and need a room for a few months…  it’ll do……but keep your laptop and other valuables with you.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Months ago, I noticed things were disappearing in my room.  I caught the cleaning lady stealing on video.  She was fired and arrested.  No one from Westmont ever contacted me, no offer of reimbursement or restitution for all she stole.Nothing.  I've had a very extended stay here across multiple rooms.  Westmont Property Group took over the hotel from Extended Stay America last November…. and it’s been downhill since then.  I’ve read the other reviews.  They are accurate.  I also was told to go buy my own soap and on occasion, toilet paper.They will not clean your room once a week.  I’ve been waiting for 7 weeks now.  Regardless of how often I’ve complained.  Today, I was told that they cleaned on the 20th of last month, that was a bold lie.  It’s the 15th today….  And I got the same song, it’ll be done tomorrow.  (She forgot it should have been done three times since the 20th.)Weekly cleaning service is included in the price of the room, but doesn’t get performed.  That’s where the management steals from you.  Services paid for but never rendered. If you are on a short trip, spend the extra twenty bucks a night and go somewhere else.  If you are here to work and need a room for a few months…  it’ll do……but keep your laptop and other valuables with you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r399397624-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>399397624</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>NO NO NO</t>
+  </si>
+  <si>
+    <t>We asked to look at a room before checking in. They shown us one room and gave us another. Both rooms had blood stains on the sheets and comforters holes in the wall. No towels in one room and in the other the towel was used and hanging on the door. You stuck to the floor these rooms where nasty. Do not go here. We were here for 10 min checked in checked out.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Alyssa B, Public Relations Manager at Crossland Economy Studios - Denver - Cherry Creek, responded to this reviewResponded August 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2016</t>
+  </si>
+  <si>
+    <t>We asked to look at a room before checking in. They shown us one room and gave us another. Both rooms had blood stains on the sheets and comforters holes in the wall. No towels in one room and in the other the towel was used and hanging on the door. You stuck to the floor these rooms where nasty. Do not go here. We were here for 10 min checked in checked out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r393636003-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>393636003</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>No soap... really?</t>
+  </si>
+  <si>
+    <t>I'll start by saying I've been to a wide range of hotels.  This is the worst I've ever been to.  Rude staff in the lobby.  Got in the room and the smell was horrible.  Lots of cigarette burns on the toilet and vinyl floor of the bathroom in this NON-SMOKING room.  The smoke detector was laying on the floor.  It was supposed to be two twin beds and there was one twin bed.  They knew two people were staying in the room but there was only one towel.  It didn't matter because there was no soap.  The bed looked like they had just straightened out the sheets where someone had stayed the night before.  There was a refrigerator but the freezer needed to be defrosted so badly that you couldn't put anything in there anyway.  It was truly the WORST HOTEL I HAVE EVER STAYED IN.  I'M A FEW YEARS PAST 60.  THIS PLACE SHOULD BE SHUT DOWN.  DON'T DO IT.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alyssa B, Public Relations Manager at Crossland Economy Studios - Denver - Cherry Creek, responded to this reviewResponded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>I'll start by saying I've been to a wide range of hotels.  This is the worst I've ever been to.  Rude staff in the lobby.  Got in the room and the smell was horrible.  Lots of cigarette burns on the toilet and vinyl floor of the bathroom in this NON-SMOKING room.  The smoke detector was laying on the floor.  It was supposed to be two twin beds and there was one twin bed.  They knew two people were staying in the room but there was only one towel.  It didn't matter because there was no soap.  The bed looked like they had just straightened out the sheets where someone had stayed the night before.  There was a refrigerator but the freezer needed to be defrosted so badly that you couldn't put anything in there anyway.  It was truly the WORST HOTEL I HAVE EVER STAYED IN.  I'M A FEW YEARS PAST 60.  THIS PLACE SHOULD BE SHUT DOWN.  DON'T DO IT.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r388594851-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>388594851</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Horrid</t>
+  </si>
+  <si>
+    <t>Absolutely horrid.  Dirty; run down; basic amenities (towels, tp, etc.) are non-existent.  Kitchenette is a joke - unusable.  Staff is in an impossible position and have lost their ability or will to provide anything remotely resembling customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alyssa B, Public Relations Manager at Crossland Economy Studios - Denver - Cherry Creek, responded to this reviewResponded July 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2016</t>
+  </si>
+  <si>
+    <t>Absolutely horrid.  Dirty; run down; basic amenities (towels, tp, etc.) are non-existent.  Kitchenette is a joke - unusable.  Staff is in an impossible position and have lost their ability or will to provide anything remotely resembling customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r387840639-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>387840639</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Do not stay here!</t>
+  </si>
+  <si>
+    <t>We were in town for a conference and some of us had several rooms here.  This place is filthy!  I will be sanitizing my luggage before I take it home.  Others finally found overpriced rooms closer to downtown and gladly paid the price to leave.  Whoever owns this property should be fined and this place shut down.  My room hadn't seen any type of cleaning products in years.  The towels were old tiny and worn.  The sheets were worn dirty and other peoples hair still on them.  The lamps were ripped and had wires sticking out of them.  The fire detector was hanging by one wire.  There was still grease by the stovetop and in the microwave.  They sweep the carpets, as there are no vacuums, hair dryers, or irons.  There are no amenities period.  They do not service rooms and do not want to replenish toilet paper or give you clean towels or sheets.  This place is beyond disgusting and should be condemned.  The people in the office were nice, but they know that this is a hopeless place.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>We were in town for a conference and some of us had several rooms here.  This place is filthy!  I will be sanitizing my luggage before I take it home.  Others finally found overpriced rooms closer to downtown and gladly paid the price to leave.  Whoever owns this property should be fined and this place shut down.  My room hadn't seen any type of cleaning products in years.  The towels were old tiny and worn.  The sheets were worn dirty and other peoples hair still on them.  The lamps were ripped and had wires sticking out of them.  The fire detector was hanging by one wire.  There was still grease by the stovetop and in the microwave.  They sweep the carpets, as there are no vacuums, hair dryers, or irons.  There are no amenities period.  They do not service rooms and do not want to replenish toilet paper or give you clean towels or sheets.  This place is beyond disgusting and should be condemned.  The people in the office were nice, but they know that this is a hopeless place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r387634403-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>387634403</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Just Gross</t>
+  </si>
+  <si>
+    <t>Gross... Gross... Gross.. The smell of cigarette smoke will gag you... Filthy floors.. flys buzzing around me.. 20 year old TV.. ONE PILLOW... and a cheap crappy one at that.. Let me tell you, it is NOT worth the money saved.. PLEASE do not stay here.. DO NOT give these people you money like I did.. you WILL regret it..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r375993181-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>375993181</t>
+  </si>
+  <si>
+    <t>05/23/2016</t>
+  </si>
+  <si>
+    <t>Believe Me!</t>
+  </si>
+  <si>
+    <t>Believe me when I say,that I would not like to go back again. Stained carpets and chairs.Each day I requested clean towels.Each day they looked like they had not been washed with detergent.The bedding was the same way.Bugs in the bathroom.Floors were not clean.I never walked around without my slippers on.I dare not use the kitchenette or dishes not knowing what they had been used for previously. On the first night,I requested that a very loose door latch be fixed. During our 6 night stay it was never done. I observed an emploee picking up several dropped penneys off the ground instead of picking up much need trash around the complex. I could go on but,I think you understand why I am giving this low review. I'm also sure that management will not take heed because,oviously they don't care. Also, the pictures Crossland uses to showcase there establisment are very misleading. False advertising is what it is. Sorry,to say but,believe me. I did not enjoy my stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Believe me when I say,that I would not like to go back again. Stained carpets and chairs.Each day I requested clean towels.Each day they looked like they had not been washed with detergent.The bedding was the same way.Bugs in the bathroom.Floors were not clean.I never walked around without my slippers on.I dare not use the kitchenette or dishes not knowing what they had been used for previously. On the first night,I requested that a very loose door latch be fixed. During our 6 night stay it was never done. I observed an emploee picking up several dropped penneys off the ground instead of picking up much need trash around the complex. I could go on but,I think you understand why I am giving this low review. I'm also sure that management will not take heed because,oviously they don't care. Also, the pictures Crossland uses to showcase there establisment are very misleading. False advertising is what it is. Sorry,to say but,believe me. I did not enjoy my stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r366186362-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>366186362</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>Walk away!!!! PLEASE</t>
+  </si>
+  <si>
+    <t>****Please read the reviews! I didn't, now I'm stuck..........People, I'm not exagerating!!! Quick business trip to Denver.....should have gone with my gut! Waited 23 minutes just to check in. Office/Lobby area smells (I am not sensative to smells) If I hadn't booked with Expedia, I would have walked away. No refunds, I've not even spent my first night.....Elevator spells like pee, waste &amp; something rotting!!! There are drug deals in the parking lot as I am writing this review, no towels or soap in the room &amp; I don't want to go back outside. I hope my car survives the night!!!!!!!!!!!!!!!!!!!!!!!Unidentified stains in the room &amp; on the ceiling....I'm afraid to use kitchenette....ice in refrigator is caked into the tiny freezer area, but it smells. Phone buttons missing (really? Why would you steel them?) Also, VERY dirty!! I found my maize in my car &amp; I'm keeping it close....Don't let Cherry Creek area fool you.....It's cheap, but not worth the stress......MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Alyssa B, Public Relations Manager at Crossland Economy Studios - Denver - Cherry Creek, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>****Please read the reviews! I didn't, now I'm stuck..........People, I'm not exagerating!!! Quick business trip to Denver.....should have gone with my gut! Waited 23 minutes just to check in. Office/Lobby area smells (I am not sensative to smells) If I hadn't booked with Expedia, I would have walked away. No refunds, I've not even spent my first night.....Elevator spells like pee, waste &amp; something rotting!!! There are drug deals in the parking lot as I am writing this review, no towels or soap in the room &amp; I don't want to go back outside. I hope my car survives the night!!!!!!!!!!!!!!!!!!!!!!!Unidentified stains in the room &amp; on the ceiling....I'm afraid to use kitchenette....ice in refrigator is caked into the tiny freezer area, but it smells. Phone buttons missing (really? Why would you steel them?) Also, VERY dirty!! I found my maize in my car &amp; I'm keeping it close....Don't let Cherry Creek area fool you.....It's cheap, but not worth the stress......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r365252639-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>365252639</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Unsanitary</t>
+  </si>
+  <si>
+    <t>This place was at uncomfortable to say the least. Not to mention dirty, unsanitary, lack of customer service, should I go on?  For one, the smell.. The room smell was so rotten and disgusting, air freshner barely helped and only in the moment. The room had no toilet paper, dirty walls, two holes in the bathroom wall, the chair was so stained and dirty I couldn't even sit on it. The was hair stuck on the wall near the bathroom, stuck on the door hinge.  Gross. The stovetop was burnt up with old food and crumbs on the burners and the wall next to it was yellow, brown and greasy looking which matched the freezer area in the fridge. It was packed with built up ice that was dirty - yellow and brown. When I tried to check in at 3 there were no rooms ready and was told to come back. When I came back at 6:15 to check-in, the was a gentleman trying to check in who's room was still not ready. The gentleman expressed frustration and the lady blamed the lack of staff and they were cleaning rooms all day and only had 8 rooms available and told the frustrated man she'd be happy to cancel his reservation for him so he could book somewhere else. What kind of customer service is that?  How are you cleaning rooms and washing linen "ALL DAY" and only have 8...This place was at uncomfortable to say the least. Not to mention dirty, unsanitary, lack of customer service, should I go on?  For one, the smell.. The room smell was so rotten and disgusting, air freshner barely helped and only in the moment. The room had no toilet paper, dirty walls, two holes in the bathroom wall, the chair was so stained and dirty I couldn't even sit on it. The was hair stuck on the wall near the bathroom, stuck on the door hinge.  Gross. The stovetop was burnt up with old food and crumbs on the burners and the wall next to it was yellow, brown and greasy looking which matched the freezer area in the fridge. It was packed with built up ice that was dirty - yellow and brown. When I tried to check in at 3 there were no rooms ready and was told to come back. When I came back at 6:15 to check-in, the was a gentleman trying to check in who's room was still not ready. The gentleman expressed frustration and the lady blamed the lack of staff and they were cleaning rooms all day and only had 8 rooms available and told the frustrated man she'd be happy to cancel his reservation for him so he could book somewhere else. What kind of customer service is that?  How are you cleaning rooms and washing linen "ALL DAY" and only have 8 rooms available after 6pm, 3 hours after check-in time?! I thought about trying another hotel, but everything most places were sold out or $200 a night, so I was stuck. Everytime I went in the office, there were people making complaints and each time got blown off and the staff would speak over them. Everyone complained about the same things. This place has such a great location but due to the conditions of the room (ew) and staff it put a huge damper on my tipr. All I wanted to be able to do was come back to my room and be comfortable, but the cardboard-mattress of a bed and uncleanliness of the room had me at extreme discomfort. This place needs to shut down or get taken over ASAP! Save yourself the time and money if you can.MoreShow less</t>
+  </si>
+  <si>
+    <t>This place was at uncomfortable to say the least. Not to mention dirty, unsanitary, lack of customer service, should I go on?  For one, the smell.. The room smell was so rotten and disgusting, air freshner barely helped and only in the moment. The room had no toilet paper, dirty walls, two holes in the bathroom wall, the chair was so stained and dirty I couldn't even sit on it. The was hair stuck on the wall near the bathroom, stuck on the door hinge.  Gross. The stovetop was burnt up with old food and crumbs on the burners and the wall next to it was yellow, brown and greasy looking which matched the freezer area in the fridge. It was packed with built up ice that was dirty - yellow and brown. When I tried to check in at 3 there were no rooms ready and was told to come back. When I came back at 6:15 to check-in, the was a gentleman trying to check in who's room was still not ready. The gentleman expressed frustration and the lady blamed the lack of staff and they were cleaning rooms all day and only had 8 rooms available and told the frustrated man she'd be happy to cancel his reservation for him so he could book somewhere else. What kind of customer service is that?  How are you cleaning rooms and washing linen "ALL DAY" and only have 8...This place was at uncomfortable to say the least. Not to mention dirty, unsanitary, lack of customer service, should I go on?  For one, the smell.. The room smell was so rotten and disgusting, air freshner barely helped and only in the moment. The room had no toilet paper, dirty walls, two holes in the bathroom wall, the chair was so stained and dirty I couldn't even sit on it. The was hair stuck on the wall near the bathroom, stuck on the door hinge.  Gross. The stovetop was burnt up with old food and crumbs on the burners and the wall next to it was yellow, brown and greasy looking which matched the freezer area in the fridge. It was packed with built up ice that was dirty - yellow and brown. When I tried to check in at 3 there were no rooms ready and was told to come back. When I came back at 6:15 to check-in, the was a gentleman trying to check in who's room was still not ready. The gentleman expressed frustration and the lady blamed the lack of staff and they were cleaning rooms all day and only had 8 rooms available and told the frustrated man she'd be happy to cancel his reservation for him so he could book somewhere else. What kind of customer service is that?  How are you cleaning rooms and washing linen "ALL DAY" and only have 8 rooms available after 6pm, 3 hours after check-in time?! I thought about trying another hotel, but everything most places were sold out or $200 a night, so I was stuck. Everytime I went in the office, there were people making complaints and each time got blown off and the staff would speak over them. Everyone complained about the same things. This place has such a great location but due to the conditions of the room (ew) and staff it put a huge damper on my tipr. All I wanted to be able to do was come back to my room and be comfortable, but the cardboard-mattress of a bed and uncleanliness of the room had me at extreme discomfort. This place needs to shut down or get taken over ASAP! Save yourself the time and money if you can.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +925,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +957,1179 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>111</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>119</v>
+      </c>
+      <c r="X12" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>127</v>
+      </c>
+      <c r="X13" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>118</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>135</v>
+      </c>
+      <c r="X14" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s">
+        <v>111</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>135</v>
+      </c>
+      <c r="X15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>155</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>162</v>
+      </c>
+      <c r="O18" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>163</v>
+      </c>
+      <c r="X18" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>163</v>
+      </c>
+      <c r="X19" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_46.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_46.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="251">
   <si>
     <t>STR#</t>
   </si>
@@ -147,18 +147,81 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/01/2018</t>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r612403179-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>33445</t>
+  </si>
+  <si>
+    <t>84891</t>
+  </si>
+  <si>
+    <t>612403179</t>
+  </si>
+  <si>
+    <t>ghetto in the making</t>
+  </si>
+  <si>
+    <t>back in 2015 this was a decent place to stay , during this time the motel has been bought by another company , it has gone done hill since then , the stairs are filthy , the garbage dumpster area looks like a landfill just trash everywhere , the rooms themselves are poorly maintained , plumbing is gone , stains are everywhere , paint is chipped off the walls and in the bathroom  , the wi-fi is very slow , plus they are not accommodating for people with disabilities ,the only decent thing is the TV wide selection of channels , the Crosslands at Cheery Creek location is NOT RECOMMENDED , make other arrangements else whereMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>back in 2015 this was a decent place to stay , during this time the motel has been bought by another company , it has gone done hill since then , the stairs are filthy , the garbage dumpster area looks like a landfill just trash everywhere , the rooms themselves are poorly maintained , plumbing is gone , stains are everywhere , paint is chipped off the walls and in the bathroom  , the wi-fi is very slow , plus they are not accommodating for people with disabilities ,the only decent thing is the TV wide selection of channels , the Crosslands at Cheery Creek location is NOT RECOMMENDED , make other arrangements else whereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r597474925-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>597474925</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Awful experience</t>
+  </si>
+  <si>
+    <t>Worst hotel experience I have ever encountered.  The manager berated me, yelled at me, wanted to throw me out...why? When I booked the room with them DIRECTLY the employee must have put in the wrong credit card information.  He is literally yelling at me that i should have checked my balance on my credit card, like I'm some low life. I am trying to explain that all 5 credit cards i have in my wallet have available credit of $10,000 each or more. I literally had to beg him to give me a room. It was 4:10pm when i tried to check in and they gave my room away. I called that morning to verify my reservation was okay. No one ever asked about my credit card. No one ever called me to see if the number was correct.  Now I have reached put to corporate TWICE still nothing. Do not use this chain.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Worst hotel experience I have ever encountered.  The manager berated me, yelled at me, wanted to throw me out...why? When I booked the room with them DIRECTLY the employee must have put in the wrong credit card information.  He is literally yelling at me that i should have checked my balance on my credit card, like I'm some low life. I am trying to explain that all 5 credit cards i have in my wallet have available credit of $10,000 each or more. I literally had to beg him to give me a room. It was 4:10pm when i tried to check in and they gave my room away. I called that morning to verify my reservation was okay. No one ever asked about my credit card. No one ever called me to see if the number was correct.  Now I have reached put to corporate TWICE still nothing. Do not use this chain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r581487235-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>581487235</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>Quiet, well patrolled</t>
+  </si>
+  <si>
+    <t>I've stayed here quite a few times in between leases on places to live. The front office has great service and the maintenance has always been timely and personable. It stays pretty quiet and Glendale police routinely check the lot. Granted they did come back to my car because I was in a wreck I can't afford to fix, but I wasn't hassled at all. I would say it's a safe, inexpensive, centralized place to spend the night. Few frills but I didn't care about that.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r580385983-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
   </si>
   <si>
-    <t>33445</t>
-  </si>
-  <si>
-    <t>84891</t>
-  </si>
-  <si>
     <t>580385983</t>
   </si>
   <si>
@@ -195,9 +258,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r524950526-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
   </si>
   <si>
@@ -219,6 +279,45 @@
     <t>Upon arrival the front desk agent was very unaccommodating to even consider checking us in before the posted 3pm time. The manager on the other hand had a much better attitude throughout our correspondence. The room itself was devastating. Door was wide open upon our arrival and looked like it had been kicked in and didn't close properly. Stains all over every wall and ceiling. The room had an extreme smell of stale smoke and every corner in the room was beyond grimy. Burn marks in the blankets and all around the worst room that we had both been in our entire lives. We had to cut our stay short. Just no way we could comfortably stay there for more than the one night that we made work in a pinch. This hotel needs a serious overhaul.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r510796160-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>510796160</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrible </t>
+  </si>
+  <si>
+    <t>The worst, the nastiest , the ugliest and the most terrible  hotel we have been in..no customer service. NEVER STAY THERE. Bad furniture, nasty restroom n a broken AC that makes noise with collapsed  pieces .</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r507964179-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>507964179</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Awful Customer Service</t>
+  </si>
+  <si>
+    <t>Before traveling all the way from Florida, I booked the hotel reservations online and they gave us an option of how old I was (18) and I was allowed to purchase the hotel room. Along arrival I go to check in and they tell me they are not allowed to rent to anyone under 21.. keep in mind I traveled all the way from Florida and was relying on this hotel. The manager was a tool bag who had no desire to help me out in my situation. He basically told me to get lost and it was my own problem. I had to have someone 21 years old with me( I found someone) so luckily I got the room or else I would of been stuck. Upon entering the room, there were no towels, no toilet paper, the toilet and shower had obviously not been cleaned in awhile and the pillows felt like paper. There was no room service and our beds had not been changed. This was the worst experience I've ever had. 10 out of 10 do not recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Before traveling all the way from Florida, I booked the hotel reservations online and they gave us an option of how old I was (18) and I was allowed to purchase the hotel room. Along arrival I go to check in and they tell me they are not allowed to rent to anyone under 21.. keep in mind I traveled all the way from Florida and was relying on this hotel. The manager was a tool bag who had no desire to help me out in my situation. He basically told me to get lost and it was my own problem. I had to have someone 21 years old with me( I found someone) so luckily I got the room or else I would of been stuck. Upon entering the room, there were no towels, no toilet paper, the toilet and shower had obviously not been cleaned in awhile and the pillows felt like paper. There was no room service and our beds had not been changed. This was the worst experience I've ever had. 10 out of 10 do not recommend.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r500527976-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
   </si>
   <si>
@@ -237,9 +336,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r498080319-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
   </si>
   <si>
@@ -279,6 +375,45 @@
     <t>Me and my mum were supposed to stay here for the remainder of our stay in the states before travelling back to England. When we entered our room we always check around. On our bed sheets there were bright blue stains. We requested these to be changed as you can imagine no guest wants to sleep on stained sheets. Over an hour later they hadn't been changed. I took the sheet off myself and under the sheet was a bright blue stain on the matress protector implying that the sheets hadn't been changed or washed before we arrived. When I went to make a complaint they offered me new sheets and I had to change the bedding myself. This isnt acceptable at all and have never been in a motel or hotel that would make the guest change their own sheets. We weren't the only guests having problems. Some guests didn't have loo roll in their rooms and had to ask for it. I have tried making an official complaint online but will not let me complete the form due to not having an American phone number.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r489067866-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>489067866</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!!!!</t>
+  </si>
+  <si>
+    <t>This is the most unsafe I have ever felt at a hotel and I have stayed at ones way cheaper than this. We were there 3 hours and didn’t feel safe to walk out of the place with our stuff still in the room let alone go out and enjoy the city. They are affiliated with Extended Stay so there are people who pretty much camp out there and do shady stuff all the time. There was a couple that walked by our room several times with hoodies on covering their faces and wouldn’t make eye contact. They kept coming outside of their room and looking at us clearly scoping it out to rob us. When we notified hotel staff they did nothing. All of the doors looked like they have been tampered with and our keycard kept deactivating for our room door but would work for the other external doors. When we first got there we went to our room and there was a woman in it and said that four other people had tried to get into that same room. The hotel staff did not show that she was in the room that she had paid for. There was practically nothing of use in the room including cups or an ice bucket. A staff member was very weird and kept going into people’s rooms, the same people that were being shady. When we got too stressed to even...This is the most unsafe I have ever felt at a hotel and I have stayed at ones way cheaper than this. We were there 3 hours and didn’t feel safe to walk out of the place with our stuff still in the room let alone go out and enjoy the city. They are affiliated with Extended Stay so there are people who pretty much camp out there and do shady stuff all the time. There was a couple that walked by our room several times with hoodies on covering their faces and wouldn’t make eye contact. They kept coming outside of their room and looking at us clearly scoping it out to rob us. When we notified hotel staff they did nothing. All of the doors looked like they have been tampered with and our keycard kept deactivating for our room door but would work for the other external doors. When we first got there we went to our room and there was a woman in it and said that four other people had tried to get into that same room. The hotel staff did not show that she was in the room that she had paid for. There was practically nothing of use in the room including cups or an ice bucket. A staff member was very weird and kept going into people’s rooms, the same people that were being shady. When we got too stressed to even be there we went and asked for a full refund and they were $53 short of the total I paid for the room. The last straw of this shady place was once I received the refund I left the office with my key still in hand and it worked on every door still including my room. Needless to say I will be contacting the BBB.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the most unsafe I have ever felt at a hotel and I have stayed at ones way cheaper than this. We were there 3 hours and didn’t feel safe to walk out of the place with our stuff still in the room let alone go out and enjoy the city. They are affiliated with Extended Stay so there are people who pretty much camp out there and do shady stuff all the time. There was a couple that walked by our room several times with hoodies on covering their faces and wouldn’t make eye contact. They kept coming outside of their room and looking at us clearly scoping it out to rob us. When we notified hotel staff they did nothing. All of the doors looked like they have been tampered with and our keycard kept deactivating for our room door but would work for the other external doors. When we first got there we went to our room and there was a woman in it and said that four other people had tried to get into that same room. The hotel staff did not show that she was in the room that she had paid for. There was practically nothing of use in the room including cups or an ice bucket. A staff member was very weird and kept going into people’s rooms, the same people that were being shady. When we got too stressed to even...This is the most unsafe I have ever felt at a hotel and I have stayed at ones way cheaper than this. We were there 3 hours and didn’t feel safe to walk out of the place with our stuff still in the room let alone go out and enjoy the city. They are affiliated with Extended Stay so there are people who pretty much camp out there and do shady stuff all the time. There was a couple that walked by our room several times with hoodies on covering their faces and wouldn’t make eye contact. They kept coming outside of their room and looking at us clearly scoping it out to rob us. When we notified hotel staff they did nothing. All of the doors looked like they have been tampered with and our keycard kept deactivating for our room door but would work for the other external doors. When we first got there we went to our room and there was a woman in it and said that four other people had tried to get into that same room. The hotel staff did not show that she was in the room that she had paid for. There was practically nothing of use in the room including cups or an ice bucket. A staff member was very weird and kept going into people’s rooms, the same people that were being shady. When we got too stressed to even be there we went and asked for a full refund and they were $53 short of the total I paid for the room. The last straw of this shady place was once I received the refund I left the office with my key still in hand and it worked on every door still including my room. Needless to say I will be contacting the BBB.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r475392583-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>475392583</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Budget but service subpar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed in town to visit relatives and wanted to save money.  Good price for the room but we didn't receive any housekeeping services during our 2 night stay.  Not sure if it was an oversight or just standard for an extended stay hotel.  Also we booked the room online because it was listed as pet friendly, however we were informed after staying there two days (and also noting other dogs and plenty of excrement on the grounds) that our dog was not allowed, so we left.  Also it's on a busy intersection so traffic was kind of loud.  </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r467541068-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
   </si>
   <si>
@@ -330,7 +465,37 @@
     <t>Very dated , small 1 bed, room , seems like a lot of people live there , and was not up to my standards if u have ever stayed in a extended stay it ten times worse I could not stay I imidiately asked for a refund !The workers very rude and incompitant was there 20 mins and had to go to front desk 5 times don't waiste your money or time unless u just have too I don't recommend</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r413834742-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>413834742</t>
+  </si>
+  <si>
+    <t>09/02/2016</t>
+  </si>
+  <si>
+    <t>3 Words - DON'T STAY HERE</t>
+  </si>
+  <si>
+    <t>Incompetent staff, room dirty, no towels or soap.  Not worth $10, let alone $100.  You'd be better off sleeping in your car.  Staff unhelpful and unprofessional.  I couldn't recommend anyone staying at this place.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r407918296-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>407918296</t>
+  </si>
+  <si>
+    <t>08/20/2016</t>
+  </si>
+  <si>
+    <t>Disrespectful At It's Finest</t>
+  </si>
+  <si>
+    <t>Very unprofessional staff and rooms are extremely overpriced. Rooms are only worth about $45. I wouldn't recommend to anyone ever. There was mildew in my microwave and they have the nerve to charge a $100 deposit. I asked for clean towels and they denied them to me until the next morning. This hotel is nothing but filth. My stove top didn't work and they didn't offer any pots or utensils. I had to go buy everything. My wife and I were very unsatisfied.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r405918540-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
@@ -348,9 +513,6 @@
     <t>Months ago, I noticed things were disappearing in my room.  I caught the cleaning lady stealing on video.  She was fired and arrested.  No one from Westmont ever contacted me, no offer of reimbursement or restitution for all she stole.Nothing.  I've had a very extended stay here across multiple rooms.  Westmont Property Group took over the hotel from Extended Stay America last November…. and it’s been downhill since then.  I’ve read the other reviews.  They are accurate.  I also was told to go buy my own soap and on occasion, toilet paper.They will not clean your room once a week.  I’ve been waiting for 7 weeks now.  Regardless of how often I’ve complained.  Today, I was told that they cleaned on the 20th of last month, that was a bold lie.  It’s the 15th today….  And I got the same song, it’ll be done tomorrow.  (She forgot it should have been done three times since the 20th.)Weekly cleaning service is included in the price of the room, but doesn’t get performed.  That’s where the management steals from you.  Services paid for but never rendered. If you are on a short trip, spend the extra twenty bucks a night and go somewhere else.  If you are here to work and need a room for a few months…  it’ll do……but keep your laptop and other valuables with you.MoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
@@ -408,6 +570,59 @@
     <t>I'll start by saying I've been to a wide range of hotels.  This is the worst I've ever been to.  Rude staff in the lobby.  Got in the room and the smell was horrible.  Lots of cigarette burns on the toilet and vinyl floor of the bathroom in this NON-SMOKING room.  The smoke detector was laying on the floor.  It was supposed to be two twin beds and there was one twin bed.  They knew two people were staying in the room but there was only one towel.  It didn't matter because there was no soap.  The bed looked like they had just straightened out the sheets where someone had stayed the night before.  There was a refrigerator but the freezer needed to be defrosted so badly that you couldn't put anything in there anyway.  It was truly the WORST HOTEL I HAVE EVER STAYED IN.  I'M A FEW YEARS PAST 60.  THIS PLACE SHOULD BE SHUT DOWN.  DON'T DO IT.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r392704214-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>392704214</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Crossland Denver Cherry Creek - Comedy of Errors - DO NOT STAY!</t>
+  </si>
+  <si>
+    <t>First, I don't like to post negative, terrible or poor reviews. In this case, I had to do it. I try to look at the positive but the negatives outweighed them. 
+We booked this hotel earlier in the day because we could not extend our stay in Estes Park. For some unknown reason, most if not all hotels were booked.
+Sadly, we left Estes Park bound for this place. We drove up and it looked okay. We went into the hotel office to get our room. Inside, there were about 10 people upset and angry. Why? Everyone made online reservations through third party hotel reservationists but they overbooked the hotel by 70 rooms! People were frantic on the phone trying to book other rooms, complaining, demanding rooms. People were being turned away and reservations canceled. The Denver area had no vacancy. If any rooms were available, they were overpriced. I felt they were price gauging because one place was charging $799 for one night. I checked two known hotel brands and they were sold out. I had asked why and they said conventions and tourists. I find that hard to believe but there were NO rooms available. 
+The hotel clerk said there were 4 remaining rooms - 2 smoking and 2 non-smoking. Clerk also could NOT guarantee the room would be clean. WHAT?! This was well after 9p. We drove a long way for this mess to happen. Ugh!
+We...First, I don't like to post negative, terrible or poor reviews. In this case, I had to do it. I try to look at the positive but the negatives outweighed them. We booked this hotel earlier in the day because we could not extend our stay in Estes Park. For some unknown reason, most if not all hotels were booked.Sadly, we left Estes Park bound for this place. We drove up and it looked okay. We went into the hotel office to get our room. Inside, there were about 10 people upset and angry. Why? Everyone made online reservations through third party hotel reservationists but they overbooked the hotel by 70 rooms! People were frantic on the phone trying to book other rooms, complaining, demanding rooms. People were being turned away and reservations canceled. The Denver area had no vacancy. If any rooms were available, they were overpriced. I felt they were price gauging because one place was charging $799 for one night. I checked two known hotel brands and they were sold out. I had asked why and they said conventions and tourists. I find that hard to believe but there were NO rooms available. The hotel clerk said there were 4 remaining rooms - 2 smoking and 2 non-smoking. Clerk also could NOT guarantee the room would be clean. WHAT?! This was well after 9p. We drove a long way for this mess to happen. Ugh!We considered ourselves "lucky" because we got the non-smoking one. Why did I put "lucky" in parenthesis? Here is the positive: we had a room to sleep in. We didn't have to drive 2 hours or pay excessive hotel rates for a one night stay or sleep in the car with two kids. Now, I say "lucky" because we didn't see the room at this point. After the mess in the hotel lobby and waiting around for nearly 45 minutes we got a "room." The paperwork for the room was bizarre. We had to initial that we would not take furniture out of the room. What kind of place is this?By this time, more people appeared upset over not having accommodations. The hotel office staff couldn't do anything because their computers crashed. No ink in the printer. It was a comedy of errors! The hotel clerk was overwhelmed. Finally, they turned off the lights in the office and posted a note on the door saying NO vacancy. They went home for the night! I have NEVER experienced or seen anything like this! Comedy of Errors I tell you!We head to the elevator. The are 2 double doors and the floor is filthy! The elevator had NO AC and a busted light with wires hanging out where the numbers usually light up. At this time, I was not comfortable with what I was seeing. We approached our room. The rug on the floor was filthy and stained. The shower and sink dripped water. The hot water knob in the bathroom had NO running water. Only the cold water knob had water. The toilet did NOT FLUSH! No soap in the room to shower or clean our hands. The sink was smelly and gross. There were NO paintings on the walls. The smoke detector was ripped off the ceiling. We started calling hotels but as I wrote earlier there was NO vacancy anywhere nearby or within 1 to 2 hours. If there was any vacancy, prices were ridiculously overpriced. There was NO ONE to call for the night because the lights were off in the office. We used our rain ponchos and clean clothes to cover the bed. The AC unit would not properly work after 66 degrees. We didn't get a good night sleep. We woke up the next day and wanted to get out of there as fast as we could. We were not sure if this place was undergoing renovations.  I know the hotel clerk from the night before tried to accommodate and assist everyone by calling other hotels but there was no room. Crossland was blaming the booking company for the reservations. I can understand that. However, the hotel needed maintenance. They clearly failed to maintain a clean, safe, comfortable environment. As I wrote earlier, we wanted to get out of there as fast as we could. At check out, we told the clerk the toilet did not flush. The response was a shocked look. That was it! A shocked look! We left a note in the room listing the problems. Again, we took the room because there were NO vacancies in the surrounding areas.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alyssa B, Public Relations Manager at Crossland Economy Studios - Denver - Cherry Creek, responded to this reviewResponded July 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2016</t>
+  </si>
+  <si>
+    <t>First, I don't like to post negative, terrible or poor reviews. In this case, I had to do it. I try to look at the positive but the negatives outweighed them. 
+We booked this hotel earlier in the day because we could not extend our stay in Estes Park. For some unknown reason, most if not all hotels were booked.
+Sadly, we left Estes Park bound for this place. We drove up and it looked okay. We went into the hotel office to get our room. Inside, there were about 10 people upset and angry. Why? Everyone made online reservations through third party hotel reservationists but they overbooked the hotel by 70 rooms! People were frantic on the phone trying to book other rooms, complaining, demanding rooms. People were being turned away and reservations canceled. The Denver area had no vacancy. If any rooms were available, they were overpriced. I felt they were price gauging because one place was charging $799 for one night. I checked two known hotel brands and they were sold out. I had asked why and they said conventions and tourists. I find that hard to believe but there were NO rooms available. 
+The hotel clerk said there were 4 remaining rooms - 2 smoking and 2 non-smoking. Clerk also could NOT guarantee the room would be clean. WHAT?! This was well after 9p. We drove a long way for this mess to happen. Ugh!
+We...First, I don't like to post negative, terrible or poor reviews. In this case, I had to do it. I try to look at the positive but the negatives outweighed them. We booked this hotel earlier in the day because we could not extend our stay in Estes Park. For some unknown reason, most if not all hotels were booked.Sadly, we left Estes Park bound for this place. We drove up and it looked okay. We went into the hotel office to get our room. Inside, there were about 10 people upset and angry. Why? Everyone made online reservations through third party hotel reservationists but they overbooked the hotel by 70 rooms! People were frantic on the phone trying to book other rooms, complaining, demanding rooms. People were being turned away and reservations canceled. The Denver area had no vacancy. If any rooms were available, they were overpriced. I felt they were price gauging because one place was charging $799 for one night. I checked two known hotel brands and they were sold out. I had asked why and they said conventions and tourists. I find that hard to believe but there were NO rooms available. The hotel clerk said there were 4 remaining rooms - 2 smoking and 2 non-smoking. Clerk also could NOT guarantee the room would be clean. WHAT?! This was well after 9p. We drove a long way for this mess to happen. Ugh!We considered ourselves "lucky" because we got the non-smoking one. Why did I put "lucky" in parenthesis? Here is the positive: we had a room to sleep in. We didn't have to drive 2 hours or pay excessive hotel rates for a one night stay or sleep in the car with two kids. Now, I say "lucky" because we didn't see the room at this point. After the mess in the hotel lobby and waiting around for nearly 45 minutes we got a "room." The paperwork for the room was bizarre. We had to initial that we would not take furniture out of the room. What kind of place is this?By this time, more people appeared upset over not having accommodations. The hotel office staff couldn't do anything because their computers crashed. No ink in the printer. It was a comedy of errors! The hotel clerk was overwhelmed. Finally, they turned off the lights in the office and posted a note on the door saying NO vacancy. They went home for the night! I have NEVER experienced or seen anything like this! Comedy of Errors I tell you!We head to the elevator. The are 2 double doors and the floor is filthy! The elevator had NO AC and a busted light with wires hanging out where the numbers usually light up. At this time, I was not comfortable with what I was seeing. We approached our room. The rug on the floor was filthy and stained. The shower and sink dripped water. The hot water knob in the bathroom had NO running water. Only the cold water knob had water. The toilet did NOT FLUSH! No soap in the room to shower or clean our hands. The sink was smelly and gross. There were NO paintings on the walls. The smoke detector was ripped off the ceiling. We started calling hotels but as I wrote earlier there was NO vacancy anywhere nearby or within 1 to 2 hours. If there was any vacancy, prices were ridiculously overpriced. There was NO ONE to call for the night because the lights were off in the office. We used our rain ponchos and clean clothes to cover the bed. The AC unit would not properly work after 66 degrees. We didn't get a good night sleep. We woke up the next day and wanted to get out of there as fast as we could. We were not sure if this place was undergoing renovations.  I know the hotel clerk from the night before tried to accommodate and assist everyone by calling other hotels but there was no room. Crossland was blaming the booking company for the reservations. I can understand that. However, the hotel needed maintenance. They clearly failed to maintain a clean, safe, comfortable environment. As I wrote earlier, we wanted to get out of there as fast as we could. At check out, we told the clerk the toilet did not flush. The response was a shocked look. That was it! A shocked look! We left a note in the room listing the problems. Again, we took the room because there were NO vacancies in the surrounding areas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r389254344-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>389254344</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>the worst hotel I've ever stayed in</t>
+  </si>
+  <si>
+    <t>I had to stay in Denver for one night. Found this one through Hotwire. 1) The front desk lady, Melissa, was always smoking somewhere. There was nobody else working. So a lot of times there was nobody in the front desk. And I cannot even complain to a manger.2) I asked for two rooms. It took her five tries to find two clean rooms. The other three were messy, clearly not cleaned. Don't know why the front desk didn't know which rooms are already cleaned and ready for new guests.2) I came back from dinner. Realized there were no towels at all. I asked the front desk at 8:30 pm. Was told the towels were in dryer and they should be ready in one hour. I went back at 9:30 but only got one. It looked clean but when I opened it,  it was dirty inside.3) There was no toilet paper in one room. When I asked, I was told they just didn't have it.4) We were not the only guests having troubles there. The other guests also needed to ask for towels and toilet papers.5) The whole place is just filthy. The furniture are old and in bad shape. No smoke detectors in my two rooms.It's hard to believe this hotel can stay in business. This place should be shut down!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>I had to stay in Denver for one night. Found this one through Hotwire. 1) The front desk lady, Melissa, was always smoking somewhere. There was nobody else working. So a lot of times there was nobody in the front desk. And I cannot even complain to a manger.2) I asked for two rooms. It took her five tries to find two clean rooms. The other three were messy, clearly not cleaned. Don't know why the front desk didn't know which rooms are already cleaned and ready for new guests.2) I came back from dinner. Realized there were no towels at all. I asked the front desk at 8:30 pm. Was told the towels were in dryer and they should be ready in one hour. I went back at 9:30 but only got one. It looked clean but when I opened it,  it was dirty inside.3) There was no toilet paper in one room. When I asked, I was told they just didn't have it.4) We were not the only guests having troubles there. The other guests also needed to ask for towels and toilet papers.5) The whole place is just filthy. The furniture are old and in bad shape. No smoke detectors in my two rooms.It's hard to believe this hotel can stay in business. This place should be shut down!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r388594851-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
   </si>
   <si>
@@ -447,9 +662,6 @@
     <t>We were in town for a conference and some of us had several rooms here.  This place is filthy!  I will be sanitizing my luggage before I take it home.  Others finally found overpriced rooms closer to downtown and gladly paid the price to leave.  Whoever owns this property should be fined and this place shut down.  My room hadn't seen any type of cleaning products in years.  The towels were old tiny and worn.  The sheets were worn dirty and other peoples hair still on them.  The lamps were ripped and had wires sticking out of them.  The fire detector was hanging by one wire.  There was still grease by the stovetop and in the microwave.  They sweep the carpets, as there are no vacuums, hair dryers, or irons.  There are no amenities period.  They do not service rooms and do not want to replenish toilet paper or give you clean towels or sheets.  This place is beyond disgusting and should be condemned.  The people in the office were nice, but they know that this is a hopeless place.MoreShow less</t>
   </si>
   <si>
-    <t>June 2016</t>
-  </si>
-  <si>
     <t>We were in town for a conference and some of us had several rooms here.  This place is filthy!  I will be sanitizing my luggage before I take it home.  Others finally found overpriced rooms closer to downtown and gladly paid the price to leave.  Whoever owns this property should be fined and this place shut down.  My room hadn't seen any type of cleaning products in years.  The towels were old tiny and worn.  The sheets were worn dirty and other peoples hair still on them.  The lamps were ripped and had wires sticking out of them.  The fire detector was hanging by one wire.  There was still grease by the stovetop and in the microwave.  They sweep the carpets, as there are no vacuums, hair dryers, or irons.  There are no amenities period.  They do not service rooms and do not want to replenish toilet paper or give you clean towels or sheets.  This place is beyond disgusting and should be condemned.  The people in the office were nice, but they know that this is a hopeless place.More</t>
   </si>
   <si>
@@ -466,6 +678,39 @@
   </si>
   <si>
     <t>Gross... Gross... Gross.. The smell of cigarette smoke will gag you... Filthy floors.. flys buzzing around me.. 20 year old TV.. ONE PILLOW... and a cheap crappy one at that.. Let me tell you, it is NOT worth the money saved.. PLEASE do not stay here.. DO NOT give these people you money like I did.. you WILL regret it..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r385285045-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>385285045</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>NEVER GOING BACK</t>
+  </si>
+  <si>
+    <t>I will never go back to this place.  It was shameful!  It smelled horrible, the stairwells were completely soaked with water I almost fell.  I had one hand towel in the bathroom.  Smallest and oldest tv I've ever seen in a hotel since 1989.  WIFI was awful!  I can't get the stench out of my nose!  Im appalled this place has any good reviews.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r382565882-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>382565882</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Crossland Studios-Glendale</t>
+  </si>
+  <si>
+    <t>This is probably the worst hotel I've ever stayed in. It was just gross. We checked in, and our first room had a pillow with blood on it, the toilet didn't work, and it was just filthy. We went to the office, and they moved us to another room. This one had the pictures torn off the wall, but the hardware was still there. Also filthy. And I'm not sure what goes on with their housekeeping...for a 4 night stay they never cleaned, made the  bed, took out the trash. I had to take my wet dirty towels down to the front desk to be exchanged. Customer service was non existent. I really don't know how they stay in business. It was just disgusting. Don't stay here. .MoreShow less</t>
+  </si>
+  <si>
+    <t>This is probably the worst hotel I've ever stayed in. It was just gross. We checked in, and our first room had a pillow with blood on it, the toilet didn't work, and it was just filthy. We went to the office, and they moved us to another room. This one had the pictures torn off the wall, but the hardware was still there. Also filthy. And I'm not sure what goes on with their housekeeping...for a 4 night stay they never cleaned, made the  bed, took out the trash. I had to take my wet dirty towels down to the front desk to be exchanged. Customer service was non existent. I really don't know how they stay in business. It was just disgusting. Don't stay here. .More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d84891-r375993181-Crossland_Economy_Studios_Denver_Cherry_Creek-Glendale_Colorado.html</t>
@@ -1057,36 +1302,40 @@
         <v>47</v>
       </c>
       <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>49</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>50</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>51</v>
       </c>
-      <c r="O2" t="s">
-        <v>52</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -1131,25 +1380,19 @@
       <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1165,7 +1408,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1174,22 +1417,22 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
         <v>59</v>
@@ -1206,7 +1449,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1243,7 +1486,7 @@
         <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
         <v>72</v>
@@ -1306,21 +1549,27 @@
         <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1336,7 +1585,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1345,25 +1594,25 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
         <v>82</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>83</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>84</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>79</v>
-      </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1420,24 +1669,14 @@
         <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -1481,23 +1720,25 @@
         <v>97</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
         <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>73</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1505,7 +1746,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -1521,7 +1762,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1530,25 +1771,25 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1562,7 +1803,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -1578,7 +1819,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1587,36 +1828,32 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O11" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
@@ -1663,10 +1900,10 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="O12" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1677,14 +1914,10 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>119</v>
-      </c>
-      <c r="X12" t="s">
-        <v>120</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
@@ -1700,7 +1933,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1709,28 +1942,30 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
         <v>123</v>
       </c>
-      <c r="J13" t="s">
-        <v>124</v>
-      </c>
-      <c r="K13" t="s">
-        <v>125</v>
-      </c>
-      <c r="L13" t="s">
-        <v>126</v>
-      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
       <c r="R13" t="s"/>
       <c r="S13" t="n">
         <v>1</v>
@@ -1742,14 +1977,10 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>127</v>
-      </c>
-      <c r="X13" t="s">
-        <v>128</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
@@ -1765,7 +1996,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1774,49 +2005,39 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
         <v>131</v>
       </c>
-      <c r="J14" t="s">
-        <v>132</v>
-      </c>
-      <c r="K14" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" t="s">
-        <v>134</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>118</v>
-      </c>
-      <c r="O14" t="s">
-        <v>59</v>
-      </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>135</v>
-      </c>
-      <c r="X14" t="s">
-        <v>136</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
@@ -1832,7 +2053,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1841,49 +2062,49 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O15" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
       <c r="S15" t="n">
         <v>1</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>135</v>
-      </c>
-      <c r="X15" t="s">
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
         <v>136</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16">
@@ -1899,7 +2120,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -1908,35 +2129,35 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
         <v>143</v>
       </c>
       <c r="O16" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1944,7 +2165,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
@@ -1960,7 +2181,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -1969,25 +2190,25 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K17" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L17" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2001,7 +2222,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
@@ -2017,7 +2238,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2026,43 +2247,45 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="J18" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="K18" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="L18" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="O18" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>163</v>
-      </c>
-      <c r="X18" t="s">
-        <v>164</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19">
@@ -2078,7 +2301,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2087,49 +2310,860 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="J19" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K19" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="O19" t="s">
-        <v>104</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>1</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>161</v>
+      </c>
+      <c r="J20" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" t="s">
         <v>163</v>
       </c>
-      <c r="X19" t="s">
+      <c r="L20" t="s">
         <v>164</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>154</v>
+      </c>
+      <c r="O20" t="s">
+        <v>165</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s">
         <v>171</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>172</v>
+      </c>
+      <c r="O21" t="s">
+        <v>165</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>173</v>
+      </c>
+      <c r="X21" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>172</v>
+      </c>
+      <c r="O22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>181</v>
+      </c>
+      <c r="X22" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>172</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>189</v>
+      </c>
+      <c r="X23" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24" t="s">
+        <v>196</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>197</v>
+      </c>
+      <c r="O24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>189</v>
+      </c>
+      <c r="X24" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J25" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" t="s">
+        <v>202</v>
+      </c>
+      <c r="L25" t="s">
+        <v>203</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>172</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>204</v>
+      </c>
+      <c r="X25" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>208</v>
+      </c>
+      <c r="J26" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" t="s">
+        <v>210</v>
+      </c>
+      <c r="L26" t="s">
+        <v>211</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>197</v>
+      </c>
+      <c r="O26" t="s">
+        <v>165</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>204</v>
+      </c>
+      <c r="X26" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>213</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J27" t="s">
+        <v>215</v>
+      </c>
+      <c r="K27" t="s">
+        <v>216</v>
+      </c>
+      <c r="L27" t="s">
+        <v>217</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>197</v>
+      </c>
+      <c r="O27" t="s">
+        <v>165</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>219</v>
+      </c>
+      <c r="J28" t="s">
+        <v>220</v>
+      </c>
+      <c r="K28" t="s">
+        <v>221</v>
+      </c>
+      <c r="L28" t="s">
+        <v>222</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>197</v>
+      </c>
+      <c r="O28" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>224</v>
+      </c>
+      <c r="J29" t="s">
+        <v>225</v>
+      </c>
+      <c r="K29" t="s">
+        <v>226</v>
+      </c>
+      <c r="L29" t="s">
+        <v>227</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>197</v>
+      </c>
+      <c r="O29" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>230</v>
+      </c>
+      <c r="J30" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" t="s">
+        <v>233</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>234</v>
+      </c>
+      <c r="O30" t="s">
+        <v>73</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" t="s">
+        <v>239</v>
+      </c>
+      <c r="L31" t="s">
+        <v>240</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>241</v>
+      </c>
+      <c r="O31" t="s">
+        <v>165</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>242</v>
+      </c>
+      <c r="X31" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36783</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>246</v>
+      </c>
+      <c r="J32" t="s">
+        <v>247</v>
+      </c>
+      <c r="K32" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s">
+        <v>249</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>241</v>
+      </c>
+      <c r="O32" t="s">
+        <v>131</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>242</v>
+      </c>
+      <c r="X32" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
